--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3329442.496510033</v>
+        <v>3328715.897638809</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124479</v>
+        <v>864456.6793124473</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5964707.369077193</v>
+        <v>5964707.369077192</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>328.1229395778176</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>252.3329318343526</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>70.60839291403724</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>91.42297362470597</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -803,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -819,13 +819,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>92.58545235732009</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.97154776676483</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>74.005365717641</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>35.46559899931598</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1062,19 +1062,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.273497641932</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>384.8774717948093</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>250.5033668008612</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.6199347530832</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -1305,13 +1305,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>166.7165542762729</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815327</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019343</v>
@@ -1390,7 +1390,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>56.72514580316082</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>24.0355933655708</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
         <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125508</v>
@@ -1830,7 +1830,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>106.6488155538371</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1864,7 +1864,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>88.0431457716974</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
@@ -2067,7 +2067,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>180.4209367886176</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
         <v>192.9893998987849</v>
@@ -2134,7 +2134,7 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862723</v>
       </c>
       <c r="U20" t="n">
         <v>224.990945096747</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56236697288437</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
         <v>139.8834969875627</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>103.1885574966856</v>
       </c>
       <c r="T22" t="n">
         <v>207.6543099067269</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56236697288437</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>88.0431457716974</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D26" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F26" t="n">
         <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U26" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V26" t="n">
         <v>316.8402373905461</v>
@@ -2620,7 +2620,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y26" t="n">
         <v>367.4283645950528</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.04510745646595</v>
+        <v>61.04510745646679</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125508</v>
@@ -2769,16 +2769,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y28" t="n">
         <v>192.9893998987849</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995113</v>
@@ -2809,10 +2809,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2857,7 +2857,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
-        <v>59.64309870642131</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>155.8600623862978</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D32" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F32" t="n">
         <v>387.3211661995113</v>
@@ -3046,10 +3046,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U32" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V32" t="n">
         <v>316.8402373905461</v>
@@ -3094,7 +3094,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y32" t="n">
         <v>367.4283645950528</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>61.04510745646594</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>155.0289087125508</v>
@@ -3243,16 +3243,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>182.1222609988087</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y34" t="n">
         <v>192.9893998987849</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D35" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.697871601935</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S37" t="n">
         <v>155.0289087125508</v>
@@ -3480,19 +3480,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>200.6202780835285</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>112.8704455176821</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D38" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995121</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G38" t="n">
         <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V38" t="n">
         <v>316.8402373905461</v>
@@ -3568,7 +3568,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y38" t="n">
         <v>367.4283645950528</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>12.00271574848082</v>
       </c>
       <c r="G40" t="n">
         <v>136.078945437374</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>155.0289087125508</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W40" t="n">
-        <v>125.9103462479684</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
         <v>192.9893998987849</v>
@@ -3754,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1412945836353</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.913542846909213</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3963,7 +3963,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>356.8268763394486</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>13.48853628860126</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>64.97216884135977</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.0981563506</v>
+        <v>310.5435400702549</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.013969704274</v>
+        <v>304.4593534239291</v>
       </c>
       <c r="D2" t="n">
-        <v>960.5766569994081</v>
+        <v>304.0358275573938</v>
       </c>
       <c r="E2" t="n">
-        <v>546.2364415163048</v>
+        <v>293.7360161146945</v>
       </c>
       <c r="F2" t="n">
-        <v>125.2060294699924</v>
+        <v>38.85426678706556</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032286</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032286</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="J2" t="n">
         <v>288.3518581880561</v>
       </c>
       <c r="K2" t="n">
-        <v>541.5402578923283</v>
+        <v>288.3518581880561</v>
       </c>
       <c r="L2" t="n">
-        <v>964.349293556063</v>
+        <v>711.1608938517911</v>
       </c>
       <c r="M2" t="n">
-        <v>964.349293556063</v>
+        <v>711.1608938517911</v>
       </c>
       <c r="N2" t="n">
-        <v>1387.158329219798</v>
+        <v>1133.969929515526</v>
       </c>
       <c r="O2" t="n">
-        <v>1387.158329219798</v>
+        <v>1387.158329219799</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219798</v>
+        <v>1387.158329219799</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.31933601509</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.31933601509</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.31933601509</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.31933601509</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.31933601509</v>
+        <v>1451.258844274601</v>
       </c>
       <c r="V2" t="n">
-        <v>1708.31933601509</v>
+        <v>1101.421289611082</v>
       </c>
       <c r="W2" t="n">
-        <v>1708.31933601509</v>
+        <v>717.6609887462503</v>
       </c>
       <c r="X2" t="n">
-        <v>1708.31933601509</v>
+        <v>717.6609887462503</v>
       </c>
       <c r="Y2" t="n">
-        <v>1708.31933601509</v>
+        <v>316.7243156943404</v>
       </c>
     </row>
     <row r="3">
@@ -4388,10 +4388,10 @@
         <v>712.9972286068362</v>
       </c>
       <c r="C3" t="n">
-        <v>579.0021573557818</v>
+        <v>579.0021573557819</v>
       </c>
       <c r="D3" t="n">
-        <v>462.1049995751742</v>
+        <v>462.1049995751744</v>
       </c>
       <c r="E3" t="n">
         <v>341.6121835675023</v>
@@ -4403,52 +4403,52 @@
         <v>125.6621910643456</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006162</v>
+        <v>54.91497810006165</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="J3" t="n">
         <v>226.979244282935</v>
       </c>
       <c r="K3" t="n">
-        <v>649.7882799466697</v>
+        <v>226.979244282935</v>
       </c>
       <c r="L3" t="n">
-        <v>935.6658356673718</v>
+        <v>649.7882799466699</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.474871331106</v>
+        <v>649.7882799466699</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.474871331106</v>
+        <v>649.7882799466699</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.474871331106</v>
+        <v>906.1063163047424</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331106</v>
+        <v>1328.915351968477</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.31933601509</v>
+        <v>1678.759816652461</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.31933601509</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="S3" t="n">
-        <v>1636.997727011012</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="T3" t="n">
-        <v>1636.997727011012</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="U3" t="n">
-        <v>1439.64691614923</v>
+        <v>1615.972898010337</v>
       </c>
       <c r="V3" t="n">
-        <v>1225.935389142264</v>
+        <v>1402.261371003371</v>
       </c>
       <c r="W3" t="n">
-        <v>1012.702220878593</v>
+        <v>1189.0282027397</v>
       </c>
       <c r="X3" t="n">
         <v>1012.702220878593</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.44067739380162</v>
+        <v>127.6870456670898</v>
       </c>
       <c r="C4" t="n">
-        <v>64.44067739380162</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="D4" t="n">
-        <v>64.44067739380162</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="E4" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="F4" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="G4" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="H4" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551232</v>
+        <v>48.24893612551234</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477503</v>
@@ -4521,19 +4521,19 @@
         <v>1052.352057873164</v>
       </c>
       <c r="U4" t="n">
-        <v>769.5539104192883</v>
+        <v>1052.352057873164</v>
       </c>
       <c r="V4" t="n">
-        <v>769.5539104192883</v>
+        <v>778.4663128126861</v>
       </c>
       <c r="W4" t="n">
-        <v>490.4842459281626</v>
+        <v>778.4663128126861</v>
       </c>
       <c r="X4" t="n">
-        <v>252.140383787846</v>
+        <v>540.1224506723695</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.140383787846</v>
+        <v>315.3867520611342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>1696.412113819451</v>
       </c>
       <c r="C5" t="n">
-        <v>1671.948915169287</v>
+        <v>1286.287523132721</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.484985262347</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>853.1447697792441</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
-        <v>836.1547617733357</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>427.4264776661679</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>116.5179802938859</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>2052.430444107056</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>2052.430444107056</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>2052.430444107056</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1702.592889443536</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>774.9313507128002</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>495.8616862216745</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>495.8616862216745</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.3531027449756</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>80.25049765783463</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E8" t="n">
         <v>63.44297370227418</v>
@@ -4810,7 +4810,7 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
         <v>733.4074053521598</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.489158455042</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y8" t="n">
-        <v>1298.552485403132</v>
+        <v>86.43127328192004</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>508.1659581184966</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.4003990889748</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>367.3070266506913</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>367.3070266506913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="U10" t="n">
-        <v>1203.093116471976</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="V10" t="n">
-        <v>929.2073714114977</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="W10" t="n">
-        <v>650.137706920372</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="X10" t="n">
-        <v>650.137706920372</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.137706920372</v>
+        <v>1131.098935930739</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E11" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>1790.121807867111</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.3549844251419</v>
+        <v>749.9965568482047</v>
       </c>
       <c r="C13" t="n">
-        <v>494.3549844251419</v>
+        <v>608.700095244606</v>
       </c>
       <c r="D13" t="n">
-        <v>494.3549844251419</v>
+        <v>479.0023614022009</v>
       </c>
       <c r="E13" t="n">
-        <v>494.3549844251419</v>
+        <v>347.8884571052052</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512421</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5229,22 +5229,22 @@
         <v>1644.203548008749</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.203548008749</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U13" t="n">
-        <v>1391.202311389558</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.113477163765</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="W13" t="n">
-        <v>897.8407235073241</v>
+        <v>932.1777295445045</v>
       </c>
       <c r="X13" t="n">
-        <v>689.2937722016924</v>
+        <v>907.8993524075643</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.3549844251419</v>
+        <v>907.8993524075643</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>809.8415093489459</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5357,16 +5357,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>179.8613846619692</v>
       </c>
       <c r="K15" t="n">
-        <v>741.8628115185547</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M15" t="n">
-        <v>1584.839892213121</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440.899838715069</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C16" t="n">
-        <v>299.6033771114703</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6033771114703</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6033771114703</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114703</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T16" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U16" t="n">
-        <v>1236.926290690861</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V16" t="n">
-        <v>992.8374564650675</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W16" t="n">
-        <v>743.5647028086266</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X16" t="n">
-        <v>635.8386264916195</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y16" t="n">
-        <v>440.899838715069</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E17" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>179.8613846619692</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L18" t="n">
-        <v>741.8628115185547</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M18" t="n">
-        <v>741.8628115185547</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
-        <v>1615.520903630173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.9067370486075</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C19" t="n">
-        <v>310.9067370486075</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="D19" t="n">
-        <v>310.9067370486075</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="E19" t="n">
-        <v>179.7928327516118</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="F19" t="n">
-        <v>179.7928327516118</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7928327516118</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V19" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X19" t="n">
-        <v>505.845524825158</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.9067370486075</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764623</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5797,7 +5797,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1752.043346625801</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1542.291518437188</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200945</v>
+        <v>1289.290281817997</v>
       </c>
       <c r="V22" t="n">
-        <v>937.361648975152</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187111</v>
+        <v>795.9286939357632</v>
       </c>
       <c r="X22" t="n">
-        <v>479.5419440130794</v>
+        <v>587.3817426301315</v>
       </c>
       <c r="Y22" t="n">
-        <v>284.6031562365289</v>
+        <v>392.442954853581</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
         <v>1960.285334281245</v>
@@ -5974,7 +5974,7 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
         <v>809.8415093489448</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6016,16 +6016,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
         <v>3463.023532176683</v>
@@ -6074,22 +6074,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>1584.839892213121</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1584.839892213121</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>1584.839892213121</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.5401592942214</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V25" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X25" t="n">
-        <v>479.5419440130794</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.6031562365289</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>809.8415093489459</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.216283632599</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6384,22 +6384,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P28" t="n">
         <v>1761.542230672484</v>
@@ -6411,25 +6411,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V28" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130794</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.6031562365289</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N30" t="n">
-        <v>966.9017898022406</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O30" t="n">
-        <v>1670.858880348135</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
         <v>2110.173374178493</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365289</v>
+        <v>832.7027105453665</v>
       </c>
       <c r="C31" t="n">
-        <v>224.3576019876185</v>
+        <v>832.7027105453665</v>
       </c>
       <c r="D31" t="n">
-        <v>224.3576019876185</v>
+        <v>703.0049767029614</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>571.8910724059657</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512419</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6648,25 +6648,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>1643.363998843349</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>1394.091245186908</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130794</v>
+        <v>1185.544293881276</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365289</v>
+        <v>990.6055061047259</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G32" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>2053.115206569777</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N33" t="n">
-        <v>2053.115206569777</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.173374178493</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>284.6031562365289</v>
+        <v>500.4882786459408</v>
       </c>
       <c r="C34" t="n">
-        <v>284.6031562365289</v>
+        <v>359.1918170423422</v>
       </c>
       <c r="D34" t="n">
-        <v>154.9054223941237</v>
+        <v>359.1918170423422</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>228.0779127453466</v>
       </c>
       <c r="F34" t="n">
         <v>93.2436976906228</v>
@@ -6858,22 +6858,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P34" t="n">
         <v>1761.542230672484</v>
@@ -6882,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200945</v>
+        <v>1305.965647513276</v>
       </c>
       <c r="V34" t="n">
-        <v>937.361648975152</v>
+        <v>1061.876813287482</v>
       </c>
       <c r="W34" t="n">
-        <v>688.0888953187111</v>
+        <v>1061.876813287482</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130794</v>
+        <v>853.3298619818507</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365289</v>
+        <v>658.3910742053004</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G35" t="n">
-        <v>430.910136076462</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -7019,22 +7019,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>549.0499539559215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>1253.007044501816</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>1814.712936990346</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.9936395339932</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="C37" t="n">
-        <v>230.6971779303946</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="D37" t="n">
-        <v>230.6971779303946</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="E37" t="n">
-        <v>230.6971779303946</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="F37" t="n">
-        <v>230.6971779303946</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7095,22 +7095,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7122,25 +7122,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U37" t="n">
-        <v>1231.804974281219</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V37" t="n">
-        <v>987.7161400554253</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W37" t="n">
-        <v>738.4433863989846</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X37" t="n">
-        <v>529.8964350933528</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y37" t="n">
-        <v>529.8964350933528</v>
+        <v>365.5313929851184</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G38" t="n">
-        <v>430.910136076462</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>1129.033635947823</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1129.033635947823</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>458.5427745949822</v>
+        <v>644.9292329748896</v>
       </c>
       <c r="C40" t="n">
-        <v>317.2463129913835</v>
+        <v>503.632771371291</v>
       </c>
       <c r="D40" t="n">
-        <v>317.2463129913835</v>
+        <v>373.9350375288859</v>
       </c>
       <c r="E40" t="n">
-        <v>317.2463129913835</v>
+        <v>242.8211332318903</v>
       </c>
       <c r="F40" t="n">
-        <v>317.2463129913835</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P40" t="n">
         <v>1761.542230672484</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="U40" t="n">
-        <v>1391.202311389558</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.113477163765</v>
+        <v>1455.590521272872</v>
       </c>
       <c r="W40" t="n">
-        <v>1019.931309236524</v>
+        <v>1206.317767616431</v>
       </c>
       <c r="X40" t="n">
-        <v>811.3843579308923</v>
+        <v>997.7708163107994</v>
       </c>
       <c r="Y40" t="n">
-        <v>616.4455701543418</v>
+        <v>802.832028534249</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1914.319620822223</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1509.855690915283</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1095.51547543218</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>674.4850633858673</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
         <v>490.5039577458317</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4269.84331758475</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3920.005762921231</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3536.245462056399</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.5005587179772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>370.5005587179772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>370.5005587179772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1618.689520728736</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1335.891373274861</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V43" t="n">
-        <v>1062.005628214383</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W43" t="n">
-        <v>782.9359637232569</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X43" t="n">
-        <v>782.9359637232569</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y43" t="n">
-        <v>558.2002651120216</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>179.8613846619692</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M45" t="n">
-        <v>754.331869609911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>754.331869609911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1458.288960155805</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2019.994852644335</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.6960310278942</v>
+        <v>533.7155141527953</v>
       </c>
       <c r="C46" t="n">
-        <v>679.6026585896107</v>
+        <v>533.7155141527953</v>
       </c>
       <c r="D46" t="n">
-        <v>520.1080139125206</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="E46" t="n">
-        <v>359.19719878084</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F46" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H46" t="n">
         <v>209.5897435862967</v>
@@ -7833,25 +7833,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.642594311473</v>
+        <v>1609.017810181573</v>
       </c>
       <c r="T46" t="n">
-        <v>1383.093855288175</v>
+        <v>1369.469071158275</v>
       </c>
       <c r="U46" t="n">
-        <v>1383.093855288175</v>
+        <v>1086.670923704399</v>
       </c>
       <c r="V46" t="n">
-        <v>1317.465401913064</v>
+        <v>812.785178643921</v>
       </c>
       <c r="W46" t="n">
-        <v>1038.395737421939</v>
+        <v>533.7155141527953</v>
       </c>
       <c r="X46" t="n">
-        <v>1038.395737421939</v>
+        <v>533.7155141527953</v>
       </c>
       <c r="Y46" t="n">
-        <v>1038.395737421939</v>
+        <v>533.7155141527953</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>344.8822479603608</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666172</v>
+        <v>522.5652320666176</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603918</v>
+        <v>519.992124760392</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>348.9356339129274</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883878</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>344.879731609538</v>
+        <v>483.1943578146218</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421898</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>316.6585864323965</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065765</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
@@ -8230,16 +8230,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8309,16 +8309,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>266.9965351298663</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>394.6973592394729</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,10 +8458,10 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>272.0504334731806</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>269.8552598673813</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
@@ -8534,25 +8534,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>66.8161563599358</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>175.4852242574859</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>376.4778038092874</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>138.8618519023701</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>613.6913745331453</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>138.8618519023701</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>204.0221919942796</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9722,10 +9722,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9734,13 +9734,13 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>584.8995157759063</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>711.6624984671718</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>202.3852368051286</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10205,13 +10205,13 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>498.0116489728624</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
@@ -10436,22 +10436,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>115.3859917360771</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>318.2461596773762</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>355.137504553472</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
@@ -10913,19 +10913,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O39" t="n">
-        <v>695.4234724815018</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,19 +11144,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>706.040592805458</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>138.8618519023701</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.6401345621998</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>76.76072710101585</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>182.4258884270047</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
@@ -23670,10 +23670,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.56154735369804</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>99.81266623873839</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>139.8834969875627</v>
@@ -23898,7 +23898,7 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
@@ -23907,10 +23907,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>30.56929314456252</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>26.04054500395787</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.7614006308816</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>51.84035121586521</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.7614006308816</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>51.84035121586527</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.2786601473</v>
+        <v>95.27866014729911</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
@@ -24621,7 +24621,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.24039828114135</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>85.78788349723737</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E34" t="n">
-        <v>68.7576577975598</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>136.078945437374</v>
@@ -25095,7 +25095,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>68.34896325419038</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.8509461694706</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>80.11895438110281</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>121.4831571556958</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>120.869679871908</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>222.4997066824608</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25794,7 +25794,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25806,7 +25806,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.50644829444514</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>49.19646844041398</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>171.0393141502876</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>206.1747187685135</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>518787.7497000134</v>
+        <v>518787.7497000133</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>518787.7497000134</v>
+        <v>518787.7497000133</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>518787.7497000133</v>
+        <v>518787.7497000134</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>518787.7497000134</v>
+        <v>518787.7497000133</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635241.332826582</v>
+        <v>635241.3328265821</v>
       </c>
       <c r="C2" t="n">
-        <v>635241.3328265824</v>
+        <v>635241.3328265822</v>
       </c>
       <c r="D2" t="n">
-        <v>635241.332826582</v>
+        <v>635241.3328265818</v>
       </c>
       <c r="E2" t="n">
-        <v>615612.8085600275</v>
+        <v>615612.8085600277</v>
       </c>
       <c r="F2" t="n">
-        <v>615612.8085600275</v>
+        <v>615612.8085600279</v>
       </c>
       <c r="G2" t="n">
-        <v>615612.8085600275</v>
+        <v>615612.8085600279</v>
       </c>
       <c r="H2" t="n">
         <v>615612.8085600276</v>
@@ -26337,25 +26337,25 @@
         <v>615612.8085600276</v>
       </c>
       <c r="J2" t="n">
+        <v>615612.8085600277</v>
+      </c>
+      <c r="K2" t="n">
         <v>615612.8085600276</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>615612.808560028</v>
+      </c>
+      <c r="M2" t="n">
         <v>615612.8085600277</v>
       </c>
-      <c r="L2" t="n">
-        <v>615612.8085600275</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615612.8085600272</v>
-      </c>
       <c r="N2" t="n">
-        <v>615612.8085600272</v>
+        <v>615612.8085600279</v>
       </c>
       <c r="O2" t="n">
-        <v>564814.9016934327</v>
+        <v>564814.9016934329</v>
       </c>
       <c r="P2" t="n">
-        <v>564814.9016934327</v>
+        <v>564814.9016934331</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108462</v>
+        <v>143124.2752108463</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668855</v>
+        <v>30686.46086668846</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691534</v>
+        <v>135342.0294691536</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110984</v>
+        <v>24445.77426110976</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197736.9133466366</v>
+        <v>197736.9133466365</v>
       </c>
       <c r="C4" t="n">
         <v>174432.0962319951</v>
@@ -26429,31 +26429,31 @@
         <v>60002.64896085223</v>
       </c>
       <c r="F4" t="n">
+        <v>60002.64896085223</v>
+      </c>
+      <c r="G4" t="n">
         <v>60002.64896085222</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>60002.64896085223</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60002.64896085224</v>
       </c>
       <c r="I4" t="n">
         <v>60002.64896085223</v>
       </c>
       <c r="J4" t="n">
-        <v>60002.64896085224</v>
+        <v>60002.64896085228</v>
       </c>
       <c r="K4" t="n">
-        <v>60002.64896085224</v>
+        <v>60002.64896085229</v>
       </c>
       <c r="L4" t="n">
-        <v>60002.64896085223</v>
+        <v>60002.64896085229</v>
       </c>
       <c r="M4" t="n">
-        <v>60002.64896085223</v>
+        <v>60002.6489608523</v>
       </c>
       <c r="N4" t="n">
-        <v>60002.64896085222</v>
+        <v>60002.6489608523</v>
       </c>
       <c r="O4" t="n">
         <v>30192.61954398331</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742936</v>
+        <v>59594.05390742938</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26493,19 +26493,19 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26524,46 +26524,46 @@
         <v>234786.0903616698</v>
       </c>
       <c r="C6" t="n">
-        <v>364753.7106494012</v>
+        <v>364753.7106494011</v>
       </c>
       <c r="D6" t="n">
-        <v>395440.1715160894</v>
+        <v>395440.1715160891</v>
       </c>
       <c r="E6" t="n">
-        <v>266536.0865417969</v>
+        <v>266485.7569923957</v>
       </c>
       <c r="F6" t="n">
-        <v>482265.0028223105</v>
+        <v>482214.6732729094</v>
       </c>
       <c r="G6" t="n">
-        <v>482265.0028223105</v>
+        <v>482214.6732729094</v>
       </c>
       <c r="H6" t="n">
-        <v>482265.0028223106</v>
+        <v>482214.6732729092</v>
       </c>
       <c r="I6" t="n">
-        <v>482265.0028223106</v>
+        <v>482214.6732729092</v>
       </c>
       <c r="J6" t="n">
-        <v>346922.9733531571</v>
+        <v>346872.6438037556</v>
       </c>
       <c r="K6" t="n">
-        <v>457819.2285612008</v>
+        <v>457768.8990117993</v>
       </c>
       <c r="L6" t="n">
-        <v>482265.0028223105</v>
+        <v>482214.6732729094</v>
       </c>
       <c r="M6" t="n">
-        <v>321906.5523216274</v>
+        <v>321856.2227722265</v>
       </c>
       <c r="N6" t="n">
-        <v>482265.0028223101</v>
+        <v>482214.6732729093</v>
       </c>
       <c r="O6" t="n">
-        <v>463757.0719045761</v>
+        <v>463576.4913119272</v>
       </c>
       <c r="P6" t="n">
-        <v>463757.0719045761</v>
+        <v>463576.4913119273</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>29.498941726338</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037724</v>
+        <v>427.0798340037727</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037724</v>
+        <v>427.0798340037727</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625314</v>
+        <v>94.98373636625286</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037724</v>
+        <v>427.0798340037727</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625314</v>
+        <v>94.98373636625286</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037724</v>
+        <v>427.0798340037727</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625314</v>
+        <v>94.98373636625286</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>72.29635103005245</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>164.4871760914967</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>36.30171687279702</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>103.9543291284575</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>76.79698635658056</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>129.3301592135989</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>11.48287933845657</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>98.46266545452417</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27675,7 +27675,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.214843983191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75949205792773</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>146.4239395205296</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.20277457702075</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>70.43669735679197</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="41">
@@ -34701,19 +34701,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>255.7458582871437</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>427.0798340037724</v>
+        <v>427.0798340037727</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037724</v>
+        <v>427.0798340037727</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>255.7458582871442</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037724</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7652077986889</v>
+        <v>427.0798340037727</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037724</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>258.9071074323965</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.0798340037727</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,10 +35178,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>176.5650354103358</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.70163254908676</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>323.2844104155374</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35664,13 +35664,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>87.49261310237013</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>560.4979811393954</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>87.49261310237013</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>146.2707129942796</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
         <v>719.7892927396343</v>
@@ -36442,10 +36442,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>530.6398807731025</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>658.4691050734218</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L28" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M28" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N28" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P28" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>443.7520139700587</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
@@ -37156,22 +37156,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.63451273607708</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L34" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N34" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P34" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>265.0527662836262</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.4448860486332</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O39" t="n">
-        <v>637.6719934815018</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K40" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L40" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N40" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P40" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>648.289113805458</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>87.49261310237013</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.947516057361</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
